--- a/Arquivados/CTR CLESIA.xlsx
+++ b/Arquivados/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7EC68D-B4FF-47B7-8992-D8BE7036E635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B41637-0244-4DF6-8A52-38D438EFD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,12 +176,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,10 +1322,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1908,10 +1902,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2449,21 +2443,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE1AAD-DE0C-4F84-8B76-E20B8BD69DF1}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2472,13 +2466,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="22">
         <v>45047</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2495,92 +2489,92 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>45048</v>
       </c>
-      <c r="B3" s="26">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25">
         <v>14</v>
       </c>
-      <c r="D3" s="26">
-        <v>54</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D3" s="24">
+        <v>54</v>
+      </c>
+      <c r="E3" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>45049</v>
       </c>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25">
         <v>14</v>
       </c>
-      <c r="D4" s="26">
-        <v>54</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="24">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>45050</v>
       </c>
-      <c r="B5" s="26">
-        <v>2</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25">
         <v>14</v>
       </c>
-      <c r="D5" s="26">
-        <v>54</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="D5" s="24">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>45051</v>
       </c>
-      <c r="B6" s="26">
-        <v>2</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
         <v>14</v>
       </c>
-      <c r="D6" s="26">
-        <v>54</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="24">
+        <v>54</v>
+      </c>
+      <c r="E6" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>45052</v>
       </c>
-      <c r="B7" s="26">
-        <v>2</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="24">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25">
         <v>14</v>
       </c>
-      <c r="D7" s="26">
-        <v>54</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="24">
+        <v>54</v>
+      </c>
+      <c r="E7" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <v>45053</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -2597,53 +2591,53 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>45054</v>
       </c>
-      <c r="B9" s="26">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
         <v>14</v>
       </c>
-      <c r="D9" s="26">
-        <v>54</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="24">
+        <v>54</v>
+      </c>
+      <c r="E9" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>45055</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>45056</v>
       </c>
-      <c r="B11" s="26">
-        <v>2</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="24">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25">
         <v>14</v>
       </c>
-      <c r="D11" s="26">
-        <v>54</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="24">
+        <v>54</v>
+      </c>
+      <c r="E11" s="24">
         <v>54</v>
       </c>
       <c r="F11" t="s">
@@ -2651,208 +2645,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>45057</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>45058</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>45059</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>45060</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>45061</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>45062</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>45063</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>45064</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>45065</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>45066</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>45067</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>45068</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>45069</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>45070</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>45071</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
-        <v>45072</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
-        <v>45073</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
-        <v>45074</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>45075</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>45076</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
-        <v>45077</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="6">
-        <f>SUM(B2:B32)</f>
+      <c r="A12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <f>SUM(B2:B11)</f>
         <v>15</v>
       </c>
-      <c r="C33" s="7">
-        <f>SUM(C2:C32)</f>
+      <c r="C12" s="7">
+        <f>SUM(C2:C11)</f>
         <v>105</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2874,27 +2679,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>280</v>
